--- a/INCLUSÃO DE EQUIPAMENTO.xlsx
+++ b/INCLUSÃO DE EQUIPAMENTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\inventory_change_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030B14B8-7922-431B-A281-2B4AC2475A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D804429-1F7F-42B5-A014-DBFE6F1733EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,17 +96,25 @@
     <t>ID do Fabricante_Modelo</t>
   </si>
   <si>
-    <t>Quantidade Ligado</t>
+    <t>Dessa Quantidade, quantos estão ligados?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,13 +140,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +174,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8037E52C-7B06-4F0C-BD00-70F441A42BC9}" name="Tabela1" displayName="Tabela1" ref="A1:Q1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:Q1048576" xr:uid="{8037E52C-7B06-4F0C-BD00-70F441A42BC9}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{28F7927E-EF92-4094-8067-66B57DA82768}" name="Código"/>
+    <tableColumn id="2" xr3:uid="{93678A6F-277D-484E-9D59-BFA229166724}" name="Id Equipamento"/>
+    <tableColumn id="3" xr3:uid="{18C19C9F-3B05-4940-9F43-78DFF5487658}" name="Estação"/>
+    <tableColumn id="4" xr3:uid="{BB8D0851-4E28-4F9B-8000-3DA5D40F7380}" name="Sala"/>
+    <tableColumn id="5" xr3:uid="{481E2629-0012-4829-8E14-ADA3971F2153}" name="Andar"/>
+    <tableColumn id="6" xr3:uid="{444B0657-BDB8-4E52-A2E2-D8E85940799A}" name="Fila bastidor"/>
+    <tableColumn id="7" xr3:uid="{CE0ED7B6-1E6A-4B43-B75D-1E898AAEBCC0}" name="Posição bastidor"/>
+    <tableColumn id="8" xr3:uid="{03E20EBF-4DC8-4771-A639-466346B8A141}" name="Largura do bastidor (Metros)"/>
+    <tableColumn id="9" xr3:uid="{37F7DE55-49A7-405C-95CE-7E2C15FBB2D5}" name="Profundidade do Bastidor (Metros)"/>
+    <tableColumn id="10" xr3:uid="{FD8FEA1D-110C-45A0-B176-0CF57C3C65D4}" name="Tipo de Bastidor"/>
+    <tableColumn id="11" xr3:uid="{E71DA6C0-AAB5-4B6D-A7E2-EBA0AAE4736A}" name="ID do Fabricante_Modelo"/>
+    <tableColumn id="12" xr3:uid="{5DB63933-2316-425C-80B6-D47821F2E7EF}" name="Quantidade"/>
+    <tableColumn id="13" xr3:uid="{68E860B1-CC3F-4391-8B66-0C86244FA0DF}" name="Dessa Quantidade, quantos estão ligados?"/>
+    <tableColumn id="14" xr3:uid="{90155AAC-8FCA-4430-AE1B-875CDFBB6E58}" name="Etiqueta"/>
+    <tableColumn id="15" xr3:uid="{F7EB6613-9DB4-4D9B-9D38-0454E7A518DD}" name="Perímetro"/>
+    <tableColumn id="16" xr3:uid="{4A2FEDA3-D918-421C-930D-2884F831C998}" name="Data coleta"/>
+    <tableColumn id="17" xr3:uid="{9A78F354-DDB9-4968-AF65-0EEB82855A64}" name="Hora coleta"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,84 +501,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E4B02E-3364-48A4-8353-D8704FBEF3C7}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
